--- a/Excel Data Analysis/Section#05/Creating Dataset.xlsx
+++ b/Excel Data Analysis/Section#05/Creating Dataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HR MANAGEMENT DATASET</t>
   </si>
@@ -37,12 +37,18 @@
   <si>
     <t>Insurance No.</t>
   </si>
+  <si>
+    <t>Hourly Wages</t>
+  </si>
+  <si>
+    <t>Commision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +59,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,11 +130,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,10 +149,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F154"/>
+  <dimension ref="B1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,10 +443,12 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,24 +457,30 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(1357911,9879879)</f>
-        <v>9172738</v>
+        <v>1742386</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(1,2)</f>
@@ -466,14 +490,22 @@
         <f ca="1">IF(D5=1,"Part-Time","Full-Time")</f>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>281</v>
+      </c>
+      <c r="G5" s="5">
+        <f ca="1">RANDBETWEEN(10,20)*0.01</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C69" ca="1" si="0">RANDBETWEEN(1357911,9879879)</f>
-        <v>9465306</v>
+        <v>9695954</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D69" ca="1" si="1">RANDBETWEEN(1,2)</f>
@@ -483,48 +515,72 @@
         <f t="shared" ref="E6:E69" ca="1" si="2">IF(D6=1,"Part-Time","Full-Time")</f>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" ref="F6:F69" ca="1" si="3">RANDBETWEEN(100,300)</f>
+        <v>164</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G69" ca="1" si="4">RANDBETWEEN(10,20)*0.01</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8720859</v>
+        <v>8437290</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="3"/>
+        <v>281</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8830297</v>
+        <v>4488060</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2935248</v>
+        <v>9590390</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
@@ -534,14 +590,22 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" ca="1" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9131324</v>
+        <v>5932627</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
@@ -551,31 +615,47 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" ca="1" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5491298</v>
+        <v>2702845</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7720759</v>
+        <v>2694431</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
@@ -585,31 +665,47 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" ca="1" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7438497</v>
+        <v>6628155</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6373517</v>
+        <v>2184919</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
@@ -619,48 +715,72 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" ca="1" si="3"/>
+        <v>294</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8531566</v>
+        <v>5363165</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7312232</v>
+        <v>4380187</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4131379</v>
+        <v>4539408</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
@@ -670,48 +790,72 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" ca="1" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9052495</v>
+        <v>5630718</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4963950</v>
+        <v>7449467</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5830119</v>
+        <v>6526651</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
@@ -721,14 +865,22 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" ca="1" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2883201</v>
+        <v>6433821</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
@@ -738,31 +890,47 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" ca="1" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5422634</v>
+        <v>8166822</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1892301</v>
+        <v>1581785</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
@@ -772,50 +940,74 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" ca="1" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5819503</v>
+        <v>1883455</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>B24+1</f>
         <v>21</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8580558</v>
+        <v>4812441</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="3"/>
+        <v>272</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" ref="B26:B89" si="3">B25+1</f>
+        <f t="shared" ref="B26:B89" si="5">B25+1</f>
         <v>22</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4513208</v>
+        <v>7032910</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
@@ -825,33 +1017,49 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" ca="1" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3337624</v>
+        <v>6983142</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4171067</v>
+        <v>9431705</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
@@ -861,15 +1069,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" ca="1" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3080656</v>
+        <v>2553034</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
@@ -879,87 +1095,127 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" ca="1" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6973944</v>
+        <v>4120245</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2132934</v>
+        <v>4492991</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8769263</v>
+        <v>9639615</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4558144</v>
+        <v>7285905</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1550329</v>
+        <v>7161560</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
@@ -969,33 +1225,49 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" ca="1" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6290547</v>
+        <v>5737054</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7443461</v>
+        <v>8025995</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
@@ -1005,33 +1277,49 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6482889</v>
+        <v>9500007</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8915553</v>
+        <v>5502132</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
@@ -1041,15 +1329,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2844228</v>
+        <v>4526483</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
@@ -1059,87 +1355,127 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6031945</v>
+        <v>2158512</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9745421</v>
+        <v>3698957</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7239588</v>
+        <v>9311485</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6221617</v>
+        <v>3019236</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2488423</v>
+        <v>5414440</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
@@ -1149,15 +1485,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3710136</v>
+        <v>6031023</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
@@ -1167,15 +1511,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6068252</v>
+        <v>4970993</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
@@ -1185,15 +1537,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5100582</v>
+        <v>7728789</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
@@ -1203,15 +1563,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3864558</v>
+        <v>5908301</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
@@ -1221,87 +1589,127 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8050534</v>
+        <v>3793867</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3712556</v>
+        <v>6940798</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1917075</v>
+        <v>7431588</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7050737</v>
+        <v>4920002</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="3"/>
+        <v>293</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3574402</v>
+        <v>8073437</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
@@ -1311,15 +1719,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" ca="1" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6654826</v>
+        <v>5118222</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
@@ -1329,15 +1745,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" ca="1" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4034292</v>
+        <v>4739142</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
@@ -1347,33 +1771,49 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" ca="1" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2563603</v>
+        <v>3402070</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4671807</v>
+        <v>8749211</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
@@ -1383,15 +1823,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" ca="1" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4563832</v>
+        <v>6416007</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
@@ -1401,15 +1849,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" ca="1" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8039183</v>
+        <v>1605689</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
@@ -1419,15 +1875,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" ca="1" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2346390</v>
+        <v>6702398</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
@@ -1437,51 +1901,75 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" ca="1" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5975516</v>
+        <v>8553501</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3805062</v>
+        <v>2502950</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9323231</v>
+        <v>1709652</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
@@ -1491,69 +1979,101 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" ca="1" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3681734</v>
+        <v>9187862</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Full-Time</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8787030</v>
+        <v>8159073</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1503038</v>
+        <v>8501657</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+        <v>Part-Time</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4858369</v>
+        <v>9182992</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
@@ -1563,15 +2083,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ca="1" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6698765</v>
+        <v>6881873</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="1"/>
@@ -1581,15 +2109,23 @@
         <f t="shared" ca="1" si="2"/>
         <v>Full-Time</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" ca="1" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1858577</v>
+        <v>8412438</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="1"/>
@@ -1599,1535 +2135,2223 @@
         <f t="shared" ca="1" si="2"/>
         <v>Part-Time</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" ca="1" si="3"/>
+        <v>269</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70:C133" ca="1" si="4">RANDBETWEEN(1357911,9879879)</f>
-        <v>8818060</v>
+        <f t="shared" ref="C70:C133" ca="1" si="6">RANDBETWEEN(1357911,9879879)</f>
+        <v>5154898</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D133" ca="1" si="5">RANDBETWEEN(1,2)</f>
+        <f t="shared" ref="D70:D133" ca="1" si="7">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" ref="E70:E133" ca="1" si="6">IF(D70=1,"Part-Time","Full-Time")</f>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E70:E133" ca="1" si="8">IF(D70=1,"Part-Time","Full-Time")</f>
+        <v>Part-Time</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:F133" ca="1" si="9">RANDBETWEEN(100,300)</f>
+        <v>260</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70:G133" ca="1" si="10">RANDBETWEEN(10,20)*0.01</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8467875</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4882320</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5812821</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4544339</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="9"/>
+        <v>165</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7513603</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7392329</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="9"/>
+        <v>273</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3756799</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5256890</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="9"/>
+        <v>201</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5672524</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3762897</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="9"/>
+        <v>226</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2653268</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9620922</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="9"/>
+        <v>262</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5726336</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8267560</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="9"/>
+        <v>188</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1476531</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5851792</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="9"/>
+        <v>258</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1827561</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3380836</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1856270</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6555626</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="9"/>
+        <v>197</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3037944</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8507815</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8345148</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2707796</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="9"/>
+        <v>159</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5600549</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4718624</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="9"/>
+        <v>147</v>
+      </c>
+      <c r="G83" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7982092</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1568978</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7997936</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3001964</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3986315</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6176222</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="9"/>
+        <v>232</v>
+      </c>
+      <c r="G86" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8167311</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5940739</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="9"/>
+        <v>237</v>
+      </c>
+      <c r="G87" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9779870</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5559274</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="9"/>
+        <v>198</v>
+      </c>
+      <c r="G88" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7189917</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9107323</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="G89" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
-        <f t="shared" ref="B90:B154" si="7">B89+1</f>
+        <f t="shared" ref="B90:B154" si="11">B89+1</f>
         <v>86</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6011328</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6193372</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="G90" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4944197</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5607014</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="9"/>
+        <v>269</v>
+      </c>
+      <c r="G91" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5617900</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4076216</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="G92" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3335518</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6188096</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="G93" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8123513</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6925797</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="G94" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6493199</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3828556</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="9"/>
+        <v>142</v>
+      </c>
+      <c r="G95" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6798403</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6054670</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="9"/>
+        <v>153</v>
+      </c>
+      <c r="G96" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3377004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6191369</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="G97" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7209374</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6732910</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="9"/>
+        <v>237</v>
+      </c>
+      <c r="G98" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4157065</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6799801</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="9"/>
+        <v>222</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1990124</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6266311</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="9"/>
+        <v>146</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1557723</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4425895</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="G101" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9373548</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2276796</v>
       </c>
       <c r="D102">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="9"/>
+        <v>248</v>
+      </c>
+      <c r="G102" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2918797</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9065090</v>
       </c>
       <c r="D103">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="G103" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2215322</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8300090</v>
       </c>
       <c r="D104">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="9"/>
+        <v>269</v>
+      </c>
+      <c r="G104" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4770793</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3230206</v>
       </c>
       <c r="D105">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="G105" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8911745</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4965483</v>
       </c>
       <c r="D106">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="9"/>
+        <v>258</v>
+      </c>
+      <c r="G106" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8061703</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6372157</v>
       </c>
       <c r="D107">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="G107" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6717624</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9414653</v>
       </c>
       <c r="D108">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="9"/>
+        <v>211</v>
+      </c>
+      <c r="G108" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6030874</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2600702</v>
       </c>
       <c r="D109">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="G109" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3279421</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9611898</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="9"/>
+        <v>148</v>
+      </c>
+      <c r="G110" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6735311</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5051593</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="9"/>
+        <v>155</v>
+      </c>
+      <c r="G111" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6868989</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7749725</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="G112" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6624416</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4780459</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="G113" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6116820</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6949986</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="9"/>
+        <v>285</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2725540</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8253888</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="9"/>
+        <v>282</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7174759</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7798237</v>
       </c>
       <c r="D116">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="9"/>
+        <v>237</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1955978</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1371215</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="G117" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6764534</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4664238</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G118" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5063848</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9315310</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="9"/>
+        <v>181</v>
+      </c>
+      <c r="G119" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8529954</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7504749</v>
       </c>
       <c r="D120">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="9"/>
+        <v>237</v>
+      </c>
+      <c r="G120" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4517869</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3359666</v>
       </c>
       <c r="D121">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="9"/>
+        <v>267</v>
+      </c>
+      <c r="G121" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5563404</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8945262</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F122">
+        <f t="shared" ca="1" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="G122" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3226593</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7324560</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ca="1" si="9"/>
+        <v>286</v>
+      </c>
+      <c r="G123" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6496821</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7438295</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ca="1" si="9"/>
+        <v>272</v>
+      </c>
+      <c r="G124" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6455561</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8244638</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ca="1" si="9"/>
+        <v>244</v>
+      </c>
+      <c r="G125" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8059930</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3558194</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ca="1" si="9"/>
+        <v>204</v>
+      </c>
+      <c r="G126" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6485571</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6107478</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ca="1" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2728748</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4677214</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ca="1" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9402700</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7115726</v>
       </c>
       <c r="D129">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ca="1" si="9"/>
+        <v>247</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2795049</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1964202</v>
       </c>
       <c r="D130">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ca="1" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="G130" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9587684</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9305445</v>
       </c>
       <c r="D131">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ca="1" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="G131" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7524495</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8725618</v>
       </c>
       <c r="D132">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ca="1" si="9"/>
+        <v>254</v>
+      </c>
+      <c r="G132" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4997533</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5720177</v>
       </c>
       <c r="D133">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ca="1" si="9"/>
+        <v>266</v>
+      </c>
+      <c r="G133" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ref="C134:C154" ca="1" si="8">RANDBETWEEN(1357911,9879879)</f>
-        <v>2130285</v>
+        <f t="shared" ref="C134:C154" ca="1" si="12">RANDBETWEEN(1357911,9879879)</f>
+        <v>8449236</v>
       </c>
       <c r="D134">
-        <f t="shared" ref="D134:D154" ca="1" si="9">RANDBETWEEN(1,2)</f>
+        <f t="shared" ref="D134:D154" ca="1" si="13">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f t="shared" ref="E134:E154" ca="1" si="10">IF(D134=1,"Part-Time","Full-Time")</f>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E134:E154" ca="1" si="14">IF(D134=1,"Part-Time","Full-Time")</f>
+        <v>Full-Time</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ref="F134:F154" ca="1" si="15">RANDBETWEEN(100,300)</f>
+        <v>207</v>
+      </c>
+      <c r="G134" s="5">
+        <f t="shared" ref="G134:G154" ca="1" si="16">RANDBETWEEN(10,20)*0.01</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>7301059</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3042062</v>
       </c>
       <c r="D135">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ca="1" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="G135" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>7515280</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2801559</v>
       </c>
       <c r="D136">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ca="1" si="15"/>
+        <v>269</v>
+      </c>
+      <c r="G136" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>6483515</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2529496</v>
       </c>
       <c r="D137">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ca="1" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="G137" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1455960</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5868176</v>
       </c>
       <c r="D138">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ca="1" si="15"/>
+        <v>126</v>
+      </c>
+      <c r="G138" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2394973</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7013572</v>
       </c>
       <c r="D139">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F139">
+        <f t="shared" ca="1" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="G139" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>8874364</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1491886</v>
       </c>
       <c r="D140">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ca="1" si="15"/>
+        <v>279</v>
+      </c>
+      <c r="G140" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>137</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>3821095</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7796711</v>
       </c>
       <c r="D141">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ca="1" si="15"/>
+        <v>188</v>
+      </c>
+      <c r="G141" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>3952907</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9163921</v>
       </c>
       <c r="D142">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ca="1" si="15"/>
+        <v>267</v>
+      </c>
+      <c r="G142" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2445534</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3451765</v>
       </c>
       <c r="D143">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ca="1" si="15"/>
+        <v>118</v>
+      </c>
+      <c r="G143" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2320923</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3051826</v>
       </c>
       <c r="D144">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ca="1" si="15"/>
+        <v>217</v>
+      </c>
+      <c r="G144" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>141</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2733656</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6291878</v>
       </c>
       <c r="D145">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ca="1" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>6225873</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5276631</v>
       </c>
       <c r="D146">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ca="1" si="15"/>
+        <v>271</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>143</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1698558</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7780898</v>
       </c>
       <c r="D147">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ca="1" si="15"/>
+        <v>161</v>
+      </c>
+      <c r="G147" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>9630426</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7780655</v>
       </c>
       <c r="D148">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ca="1" si="15"/>
+        <v>185</v>
+      </c>
+      <c r="G148" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>145</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>4131809</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4073929</v>
       </c>
       <c r="D149">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ca="1" si="15"/>
+        <v>149</v>
+      </c>
+      <c r="G149" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1390734</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7833198</v>
       </c>
       <c r="D150">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ca="1" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="G150" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2533473</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4380789</v>
       </c>
       <c r="D151">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F151">
+        <f t="shared" ca="1" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G151" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>6098879</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4111312</v>
       </c>
       <c r="D152">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Full-Time</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ca="1" si="15"/>
+        <v>271</v>
+      </c>
+      <c r="G152" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>7878542</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6909312</v>
       </c>
       <c r="D153">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Part-Time</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ca="1" si="15"/>
+        <v>131</v>
+      </c>
+      <c r="G153" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>5889310</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7746210</v>
       </c>
       <c r="D154">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Full-Time</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Part-Time</v>
+      </c>
+      <c r="F154">
+        <f t="shared" ca="1" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="G154" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
